--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipe\DysonRecipe\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB485288-BBF3-4E1C-90C1-A6B28234B41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F63AC-3B02-4675-9DDD-907127A43DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="6705" windowWidth="25380" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="3750" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="143">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,235 @@
   </si>
   <si>
     <t>钢材:2|铜块:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁涡轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运输机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际物流运输船</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电浆激发器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级磁场环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子宽带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微晶原件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵研究站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1</t>
+  </si>
+  <si>
+    <t>石矿:10</t>
+  </si>
+  <si>
+    <t>引力透镜:1</t>
+  </si>
+  <si>
+    <t>刺笋结晶:2</t>
+  </si>
+  <si>
+    <t>电动机:2|磁线圈:2</t>
+  </si>
+  <si>
+    <t>铁块:2|铜块:1</t>
+  </si>
+  <si>
+    <t>金刚石:4|奇异物质:1</t>
+  </si>
+  <si>
+    <t>钛块:1|石墨烯:2</t>
+  </si>
+  <si>
+    <t>铁块:5|处理器:2|推进器:2</t>
+  </si>
+  <si>
+    <t>钛合金:10|处理器:10|加力推进器:2</t>
+  </si>
+  <si>
+    <t>磁线圈:4|棱镜:2</t>
+  </si>
+  <si>
+    <t>电磁涡轮:2|磁铁:3|高能石墨:1</t>
+  </si>
+  <si>
+    <t>电路板:2|微晶原件:2</t>
+  </si>
+  <si>
+    <t>钛晶石:1|石墨烯:2|氢:12</t>
+  </si>
+  <si>
+    <t>电磁涡轮:2|铜块:2|石墨烯:2</t>
+  </si>
+  <si>
+    <t>石墨烯:1|光子合并器:1</t>
+  </si>
+  <si>
+    <t>碳纳米管:4|钛合金:1|高纯硅块:1</t>
+  </si>
+  <si>
+    <t>框架材料:3|太阳帆:3|处理器:3</t>
+  </si>
+  <si>
+    <t>棱镜:2|电路板:1</t>
+  </si>
+  <si>
+    <t>光栅石:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高纯硅块:2|铜块:1</t>
+  </si>
+  <si>
+    <t>光栅石:6|石墨烯:2|氢:12</t>
+  </si>
+  <si>
+    <t>磁线圈:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高能石墨:2|氢:2</t>
+  </si>
+  <si>
+    <t>金刚石:1|钛晶石:1</t>
+  </si>
+  <si>
+    <t>处理器:2|粒子宽带:1</t>
+  </si>
+  <si>
+    <t>电路板</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁矩阵:1|能量矩阵:1|结构矩阵:1|信息矩阵:1|引力矩阵:1|反物质:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜:1|量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2|晶格硅:2|塑料:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,12 +599,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,19 +962,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="1">
@@ -756,19 +982,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1">
@@ -776,19 +1002,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1">
@@ -796,19 +1022,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1">
@@ -816,19 +1042,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="1">
@@ -836,19 +1062,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1">
@@ -896,19 +1122,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -916,19 +1142,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -936,19 +1162,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -956,19 +1182,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -976,19 +1202,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -996,19 +1222,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1016,19 +1242,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1036,19 +1262,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1056,19 +1282,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1076,19 +1302,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1096,19 +1322,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1116,19 +1342,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1136,19 +1362,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1156,19 +1382,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1176,19 +1402,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1196,19 +1422,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1216,19 +1442,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1236,19 +1462,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1257,22 +1483,622 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="2">
+        <v>24</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="2">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F63AC-3B02-4675-9DDD-907127A43DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="3750" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="3750" windowWidth="25605" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,9 +447,6 @@
     <t>金刚石:4|奇异物质:1</t>
   </si>
   <si>
-    <t>钛块:1|石墨烯:2</t>
-  </si>
-  <si>
     <t>铁块:5|处理器:2|推进器:2</t>
   </si>
   <si>
@@ -549,13 +545,41 @@
   </si>
   <si>
     <t>碳纳米管:2|晶格硅:2|塑料:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:1|石墨烯:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油精炼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,7 +922,9 @@
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1043,33 +1069,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -1082,60 +1108,60 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
@@ -1143,19 +1169,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -1163,19 +1189,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -1183,13 +1209,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -1203,19 +1229,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1223,19 +1249,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -1243,19 +1269,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -1263,39 +1289,39 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>43</v>
@@ -1303,19 +1329,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -1323,19 +1349,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
@@ -1343,19 +1369,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>43</v>
@@ -1363,16 +1389,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1383,19 +1409,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>43</v>
@@ -1403,19 +1429,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>43</v>
@@ -1423,13 +1449,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -1443,19 +1469,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>43</v>
@@ -1463,19 +1489,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>43</v>
@@ -1483,39 +1509,39 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -1523,19 +1549,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
@@ -1543,19 +1569,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -1563,19 +1589,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -1583,16 +1609,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2">
         <v>6</v>
@@ -1603,19 +1629,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -1623,16 +1649,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -1643,19 +1669,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -1663,39 +1689,39 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>87</v>
@@ -1703,19 +1729,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>87</v>
@@ -1723,19 +1749,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>87</v>
@@ -1743,19 +1769,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>87</v>
@@ -1763,13 +1789,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
@@ -1783,19 +1809,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>87</v>
@@ -1803,19 +1829,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>87</v>
@@ -1823,16 +1849,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -1843,19 +1869,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>87</v>
@@ -1863,19 +1889,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>87</v>
@@ -1883,33 +1909,33 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
@@ -1923,19 +1949,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>97</v>
@@ -1943,19 +1969,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>97</v>
@@ -1963,13 +1989,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>12</v>
@@ -1983,39 +2009,39 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E56" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>104</v>
@@ -2023,19 +2049,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E57" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>104</v>
@@ -2043,19 +2069,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E58" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>104</v>
@@ -2063,19 +2089,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>104</v>
@@ -2083,10 +2109,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>140</v>
@@ -2095,9 +2121,29 @@
         <v>103</v>
       </c>
       <c r="E60" s="2">
+        <v>24</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="2">
         <v>15</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>104</v>
       </c>
     </row>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4428637-0B5B-49F5-80E1-9122FFCA2E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="3750" windowWidth="25605" windowHeight="13410"/>
+    <workbookView xWindow="21135" yWindow="5655" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="173">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,13 +574,109 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带:3|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带:3|超级磁场环:1|石墨烯:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1|电路板:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器:2|电动机:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速分拣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器:2|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力感应塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|磁线圈:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,6 +2244,146 @@
         <v>104</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4428637-0B5B-49F5-80E1-9122FFCA2E85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FC479-F949-42F0-9485-E3472FBD69D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21135" yWindow="5655" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="5460" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="169">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,22 +654,6 @@
   </si>
   <si>
     <t>高速分拣器:2|电磁涡轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电力感应塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:2|磁线圈:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2245,34 +2229,34 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>169</v>
+      <c r="A62" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>170</v>
+      <c r="E62" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>12</v>
@@ -2286,33 +2270,33 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
@@ -2321,18 +2305,18 @@
         <v>159</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>12</v>
@@ -2346,13 +2330,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>12</v>
@@ -2361,26 +2345,6 @@
         <v>159</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F68" s="1" t="s">
         <v>163</v>
       </c>
     </row>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2FC479-F949-42F0-9485-E3472FBD69D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="5460" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="5460" windowWidth="25605" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="169">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="169">
   <si>
     <t>铁矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铜矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,30 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁线圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磁铁:2|铜块:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高纯硅块</t>
-  </si>
-  <si>
-    <t>钛块</t>
-  </si>
-  <si>
-    <t>石材</t>
-  </si>
-  <si>
-    <t>高能石墨</t>
-  </si>
-  <si>
-    <t>塑料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石墨烯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>硅石:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,30 +110,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>晶格硅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有机晶体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>液氢燃料棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>氘核燃料棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>制造台</t>
   </si>
   <si>
@@ -198,57 +129,504 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钢材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛化玻璃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>微型粒子对撞器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯硅块:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矿:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能石墨:1</t>
+  </si>
+  <si>
+    <t>塑料:2|精炼油:2|水:1</t>
+  </si>
+  <si>
+    <t>钛块:1|氢:5</t>
+  </si>
+  <si>
+    <t>钛合金:1|重氢:10|超级磁场环:1</t>
+  </si>
+  <si>
+    <t>铁块:3</t>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:2|磁线圈:1</t>
+  </si>
+  <si>
+    <t>分型硅石:1</t>
+  </si>
+  <si>
+    <t>玻璃:2|钛块:2|水:2</t>
+  </si>
+  <si>
+    <t>玻璃:3</t>
+  </si>
+  <si>
+    <t>金伯利矿石:1</t>
+  </si>
+  <si>
+    <t>有机晶体:1|钛块:3</t>
+  </si>
+  <si>
+    <t>钛合金:5|电磁涡轮:5</t>
+  </si>
+  <si>
+    <t>粒子容器:2|铁块:2|重氢:10</t>
+  </si>
+  <si>
+    <t>水:4|石矿:8|精炼油:6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:4|钢材:4|硫酸:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材:10|植物染料:20|水:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材:2|铜块:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵研究站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1</t>
+  </si>
+  <si>
+    <t>石矿:10</t>
+  </si>
+  <si>
+    <t>引力透镜:1</t>
+  </si>
+  <si>
+    <t>刺笋结晶:2</t>
+  </si>
+  <si>
+    <t>电动机:2|磁线圈:2</t>
+  </si>
+  <si>
+    <t>铁块:2|铜块:1</t>
+  </si>
+  <si>
+    <t>金刚石:4|奇异物质:1</t>
+  </si>
+  <si>
+    <t>铁块:5|处理器:2|推进器:2</t>
+  </si>
+  <si>
+    <t>钛合金:10|处理器:10|加力推进器:2</t>
+  </si>
+  <si>
+    <t>磁线圈:4|棱镜:2</t>
+  </si>
+  <si>
+    <t>电磁涡轮:2|磁铁:3|高能石墨:1</t>
+  </si>
+  <si>
+    <t>电路板:2|微晶原件:2</t>
+  </si>
+  <si>
+    <t>钛晶石:1|石墨烯:2|氢:12</t>
+  </si>
+  <si>
+    <t>电磁涡轮:2|铜块:2|石墨烯:2</t>
+  </si>
+  <si>
+    <t>石墨烯:1|光子合并器:1</t>
+  </si>
+  <si>
+    <t>碳纳米管:4|钛合金:1|高纯硅块:1</t>
+  </si>
+  <si>
+    <t>框架材料:3|太阳帆:3|处理器:3</t>
+  </si>
+  <si>
+    <t>棱镜:2|电路板:1</t>
+  </si>
+  <si>
+    <t>光栅石:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高纯硅块:2|铜块:1</t>
+  </si>
+  <si>
+    <t>光栅石:6|石墨烯:2|氢:12</t>
+  </si>
+  <si>
+    <t>磁线圈:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高能石墨:2|氢:2</t>
+  </si>
+  <si>
+    <t>金刚石:1|钛晶石:1</t>
+  </si>
+  <si>
+    <t>处理器:2|粒子宽带:1</t>
+  </si>
+  <si>
+    <t>电磁矩阵:1|能量矩阵:1|结构矩阵:1|信息矩阵:1|引力矩阵:1|反物质:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜:1|量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2|晶格硅:2|塑料:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:1|石墨烯:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油精炼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带:3|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带:3|超级磁场环:1|石墨烯:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1|电路板:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器:2|电动机:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器:2|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯硅块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能石墨:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁线圈:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机晶体:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液氢燃料棒:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氘核燃料棒:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛化玻璃:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛晶石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加力推进器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱镜:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异物质:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁涡轮:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运输机:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际物流运输船:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电浆激发器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级磁场环:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子宽带:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳帆:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架材料:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球组件:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微晶原件:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力矩阵:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速分拣器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金刚石（高效）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛晶石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推进器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加力推进器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇异物质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型粒子对撞器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>钛合金</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棱镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶格硅（高效）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,268 +634,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高纯硅块:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>石矿:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高能石墨:1</t>
-  </si>
-  <si>
-    <t>塑料:2|精炼油:2|水:1</t>
-  </si>
-  <si>
-    <t>钛块:1|氢:5</t>
-  </si>
-  <si>
-    <t>钛合金:1|重氢:10|超级磁场环:1</t>
-  </si>
-  <si>
-    <t>铁块:3</t>
-  </si>
-  <si>
-    <t>铁块:2|齿轮:2|磁线圈:1</t>
-  </si>
-  <si>
-    <t>分型硅石:1</t>
-  </si>
-  <si>
-    <t>玻璃:2|钛块:2|水:2</t>
-  </si>
-  <si>
-    <t>玻璃:3</t>
-  </si>
-  <si>
-    <t>金伯利矿石:1</t>
-  </si>
-  <si>
-    <t>有机晶体:1|钛块:3</t>
-  </si>
-  <si>
-    <t>钛合金:5|电磁涡轮:5</t>
-  </si>
-  <si>
-    <t>粒子容器:2|铁块:2|重氢:10</t>
-  </si>
-  <si>
-    <t>硫酸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水:4|石矿:8|精炼油:6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛块:4|钢材:4|硫酸:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材:10|植物染料:20|水:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢材:2|铜块:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁涡轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>硅石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力透镜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流运输机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星际物流运输船</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电浆激发器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级磁场环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子宽带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡西米尔晶体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子容器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间翘曲器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴森球组件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子合并器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微晶原件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇宙矩阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵研究站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:1</t>
-  </si>
-  <si>
-    <t>石矿:10</t>
-  </si>
-  <si>
-    <t>引力透镜:1</t>
-  </si>
-  <si>
-    <t>刺笋结晶:2</t>
-  </si>
-  <si>
-    <t>电动机:2|磁线圈:2</t>
-  </si>
-  <si>
-    <t>铁块:2|铜块:1</t>
-  </si>
-  <si>
-    <t>金刚石:4|奇异物质:1</t>
-  </si>
-  <si>
-    <t>铁块:5|处理器:2|推进器:2</t>
-  </si>
-  <si>
-    <t>钛合金:10|处理器:10|加力推进器:2</t>
-  </si>
-  <si>
-    <t>磁线圈:4|棱镜:2</t>
-  </si>
-  <si>
-    <t>电磁涡轮:2|磁铁:3|高能石墨:1</t>
-  </si>
-  <si>
-    <t>电路板:2|微晶原件:2</t>
-  </si>
-  <si>
-    <t>钛晶石:1|石墨烯:2|氢:12</t>
-  </si>
-  <si>
-    <t>电磁涡轮:2|铜块:2|石墨烯:2</t>
-  </si>
-  <si>
-    <t>石墨烯:1|光子合并器:1</t>
-  </si>
-  <si>
-    <t>碳纳米管:4|钛合金:1|高纯硅块:1</t>
-  </si>
-  <si>
-    <t>框架材料:3|太阳帆:3|处理器:3</t>
-  </si>
-  <si>
-    <t>棱镜:2|电路板:1</t>
-  </si>
-  <si>
-    <t>光栅石:1|电路板:1</t>
-  </si>
-  <si>
-    <t>高纯硅块:2|铜块:1</t>
-  </si>
-  <si>
-    <t>光栅石:6|石墨烯:2|氢:12</t>
-  </si>
-  <si>
-    <t>磁线圈:1|电路板:1</t>
-  </si>
-  <si>
-    <t>高能石墨:2|氢:2</t>
-  </si>
-  <si>
-    <t>金刚石:1|钛晶石:1</t>
-  </si>
-  <si>
-    <t>处理器:2|粒子宽带:1</t>
-  </si>
-  <si>
-    <t>电路板</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力矩阵</t>
+    <t>光子合并器（高效）</t>
+  </si>
+  <si>
+    <t>有机晶体:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,142 +653,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卡西米尔晶体:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碳纳米管（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳帆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子合并器（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁矩阵:1|能量矩阵:1|结构矩阵:1|信息矩阵:1|引力矩阵:1|反物质:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力透镜:1|量子芯片:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管:2|晶格硅:2|塑料:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛块:1|石墨烯:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油精炼机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:2|齿轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速传送带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送带:3|电磁涡轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极速传送带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速传送带:3|超级磁场环:1|石墨烯:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:1|电路板:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速分拣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拣器:2|电动机:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极速分拣器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速分拣器:2|电磁涡轮:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,17 +993,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
@@ -1010,36 +1014,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1050,16 +1051,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1070,16 +1068,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1090,19 +1085,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1110,19 +1102,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1130,19 +1119,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1150,39 +1136,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1190,19 +1170,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1210,1142 +1187,989 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="2">
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2">
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2">
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2">
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2">
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2">
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2">
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2">
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2">
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E57" s="2">
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2">
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2">
         <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2">
         <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68162284-FF55-4114-84AC-6E313CC257F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="5460" windowWidth="25605" windowHeight="13410"/>
+    <workbookView xWindow="8415" yWindow="4050" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
   <si>
     <t>铁矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,13 +659,85 @@
   </si>
   <si>
     <t>碳纳米管（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器（高级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器:2|位面过滤器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位面过滤器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体:1|钛化玻璃:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力矩阵:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质能存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质:2|氢:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临界光子:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子对撞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -993,11 +1066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1638,30 +1711,30 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
@@ -1672,16 +1745,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>28</v>
@@ -1689,33 +1762,33 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
@@ -1723,16 +1796,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>48</v>
@@ -1740,16 +1813,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>48</v>
@@ -1757,16 +1830,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>48</v>
@@ -1774,10 +1847,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -1791,16 +1864,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
@@ -1808,19 +1881,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>48</v>
@@ -1828,13 +1898,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -1845,16 +1918,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>48</v>
@@ -1862,16 +1935,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>48</v>
@@ -1879,30 +1952,27 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1916,16 +1986,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>49</v>
@@ -1933,19 +2006,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>49</v>
@@ -1953,101 +2023,113 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2">
-        <v>4</v>
+        <v>174</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>149</v>
+        <v>183</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="2">
-        <v>10</v>
+        <v>185</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E60" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>51</v>
@@ -2055,120 +2137,188 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E61" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>85</v>
+      <c r="A62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>88</v>
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="E63" s="2">
+        <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>89</v>
+      <c r="A64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="E64" s="2">
+        <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>92</v>
+      <c r="A65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="E65" s="2">
+        <v>15</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68162284-FF55-4114-84AC-6E313CC257F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7EFD2-BBA1-4C1B-92B8-E3E2BA343FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="4050" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
   <si>
     <t>铁矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,10 +723,6 @@
   </si>
   <si>
     <t>临界光子:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子对撞机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1069,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,10 +2105,10 @@
         <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>173</v>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7EFD2-BBA1-4C1B-92B8-E3E2BA343FF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A106AD-1D96-4449-8CBD-52E07567D87A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>铁块:3</t>
   </si>
   <si>
-    <t>铁块:2|齿轮:2|磁线圈:1</t>
-  </si>
-  <si>
     <t>分型硅石:1</t>
   </si>
   <si>
@@ -727,6 +724,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:1|磁线圈:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,10 +1084,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -1103,7 +1104,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1120,7 +1121,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1154,7 +1155,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1171,7 +1172,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1188,7 +1189,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1205,24 +1206,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1239,7 +1240,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1256,7 +1257,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1273,7 +1274,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1290,7 +1291,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -1307,10 +1308,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -1324,7 +1325,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
@@ -1358,7 +1359,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -1375,7 +1376,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>33</v>
@@ -1392,7 +1393,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -1409,7 +1410,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -1426,10 +1427,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
@@ -1443,13 +1444,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1463,10 +1464,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1480,10 +1481,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1497,13 +1498,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1517,13 +1518,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -1537,10 +1538,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1554,10 +1555,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1571,10 +1572,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -1588,10 +1589,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -1605,10 +1606,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1622,10 +1623,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1639,10 +1640,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -1656,10 +1657,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -1673,10 +1674,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1690,10 +1691,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>23</v>
@@ -1707,27 +1708,27 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>19</v>
@@ -1741,10 +1742,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1758,10 +1759,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -1775,10 +1776,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1787,15 +1788,15 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1804,15 +1805,15 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1821,15 +1822,15 @@
         <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1838,15 +1839,15 @@
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -1855,15 +1856,15 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1872,15 +1873,15 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -1889,18 +1890,18 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
@@ -1909,15 +1910,15 @@
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -1926,15 +1927,15 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1943,15 +1944,15 @@
         <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -1960,15 +1961,15 @@
         <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1977,18 +1978,18 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -1997,15 +1998,15 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -2014,35 +2015,35 @@
         <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -2051,18 +2052,18 @@
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -2071,251 +2072,251 @@
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="2">
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="2">
         <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" s="2">
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" s="2">
         <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E65" s="2">
         <v>15</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A106AD-1D96-4449-8CBD-52E07567D87A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="224">
   <si>
     <t>铁矿:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高能石墨:1|精炼油:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>硫酸:1|高能石墨:3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,9 +147,6 @@
     <t>高能石墨:1</t>
   </si>
   <si>
-    <t>塑料:2|精炼油:2|水:1</t>
-  </si>
-  <si>
     <t>钛块:1|氢:5</t>
   </si>
   <si>
@@ -185,18 +177,10 @@
     <t>粒子容器:2|铁块:2|重氢:10</t>
   </si>
   <si>
-    <t>水:4|石矿:8|精炼油:6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>钛块:4|钢材:4|硫酸:8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木材:10|植物染料:20|水:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢材:2|铜块:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,67 +240,639 @@
     <t>钛晶石:1|石墨烯:2|氢:12</t>
   </si>
   <si>
+    <t>石墨烯:1|光子合并器:1</t>
+  </si>
+  <si>
+    <t>碳纳米管:4|钛合金:1|高纯硅块:1</t>
+  </si>
+  <si>
+    <t>框架材料:3|太阳帆:3|处理器:3</t>
+  </si>
+  <si>
+    <t>棱镜:2|电路板:1</t>
+  </si>
+  <si>
+    <t>光栅石:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高纯硅块:2|铜块:1</t>
+  </si>
+  <si>
+    <t>光栅石:6|石墨烯:2|氢:12</t>
+  </si>
+  <si>
+    <t>磁线圈:1|电路板:1</t>
+  </si>
+  <si>
+    <t>高能石墨:2|氢:2</t>
+  </si>
+  <si>
+    <t>金刚石:1|钛晶石:1</t>
+  </si>
+  <si>
+    <t>处理器:2|粒子宽带:1</t>
+  </si>
+  <si>
+    <t>电磁矩阵:1|能量矩阵:1|结构矩阵:1|信息矩阵:1|引力矩阵:1|反物质:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜:1|量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2|晶格硅:2|塑料:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油精炼机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带:3|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带:3|超级磁场环:1|石墨烯:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1|电路板:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器:2|电动机:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器:2|电磁涡轮:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高纯硅块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高能石墨:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁线圈:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机晶体:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液氢燃料棒:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氘核燃料棒:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢材:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动机:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛化玻璃:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛晶石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加力推进器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱镜:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异物质:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁涡轮:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅石:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路板:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力透镜:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运输机:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际物流运输船:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电浆激发器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级磁场环:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子宽带:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳帆:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架材料:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球组件:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微晶原件:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力矩阵:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙矩阵:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速传送带:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速分拣器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速分拣器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶格硅:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚石（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机晶体（原始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器（高效）</t>
+  </si>
+  <si>
+    <t>有机晶体:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光子合并器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纳米管（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间翘曲器（高级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器:2|位面过滤器:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位面过滤器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力矩阵:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质能存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质:2|氢:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块:2|齿轮:1|磁线圈:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油:2|氢:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子精炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢:3|高能石墨:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X射线裂解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油:1|氢:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯:2|氢:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯（高效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可燃冰:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料:2|精炼油:1|水:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质燃料棒:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质:10|氢:10|湮灭约束球:1|钛合金:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重氢:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重氢分馏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分馏塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材:20|植物染料:30|水:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油:6|石矿:8|水:4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼油:2|高能石墨:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重氢:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡西米尔晶体:1|钛化玻璃:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨烯:3|钛块:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型运载火箭:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴森球组件:2|氘核燃料棒:2|量子芯片:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湮灭约束球:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器:1|处理器:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单极磁石:10|铜块:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电磁涡轮:2|铜块:2|石墨烯:2</t>
-  </si>
-  <si>
-    <t>石墨烯:1|光子合并器:1</t>
-  </si>
-  <si>
-    <t>碳纳米管:4|钛合金:1|高纯硅块:1</t>
-  </si>
-  <si>
-    <t>框架材料:3|太阳帆:3|处理器:3</t>
-  </si>
-  <si>
-    <t>棱镜:2|电路板:1</t>
-  </si>
-  <si>
-    <t>光栅石:1|电路板:1</t>
-  </si>
-  <si>
-    <t>高纯硅块:2|铜块:1</t>
-  </si>
-  <si>
-    <t>光栅石:6|石墨烯:2|氢:12</t>
-  </si>
-  <si>
-    <t>磁线圈:1|电路板:1</t>
-  </si>
-  <si>
-    <t>高能石墨:2|氢:2</t>
-  </si>
-  <si>
-    <t>金刚石:1|钛晶石:1</t>
-  </si>
-  <si>
-    <t>处理器:2|粒子宽带:1</t>
-  </si>
-  <si>
-    <t>电磁矩阵:1|能量矩阵:1|结构矩阵:1|信息矩阵:1|引力矩阵:1|反物质:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力透镜:1|量子芯片:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管:2|晶格硅:2|塑料:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛块:1|石墨烯:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油精炼机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临界光子:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地基:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材:3|钢材:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,417 +880,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁块:2|齿轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送带:3|电磁涡轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速传送带:3|超级磁场环:1|石墨烯:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:1|电路板:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拣器:2|电动机:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速分拣器:2|电磁涡轮:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜块:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高纯硅块:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛块:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高能石墨:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼油:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塑料:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>石墨烯:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁铁:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁线圈:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶格硅:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛合金:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚石:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有机晶体:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>液氢燃料棒:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>氘核燃料棒:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢材:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动机:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛化玻璃:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钛晶石:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推进器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加力推进器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>display_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棱镜:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇异物质:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁涡轮:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>硅石:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路板:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力透镜:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>硫酸:4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流运输机:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星际物流运输船:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电浆激发器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级磁场环:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子宽带:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡西米尔晶体:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子容器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间翘曲器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳帆:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架材料:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴森球组件:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子合并器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微晶原件:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子容器:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电磁矩阵:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量矩阵:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构矩阵:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息矩阵:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力矩阵:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇宙矩阵:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送带:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速传送带:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极速传送带:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分拣器:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速分拣器:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极速分拣器:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶格硅（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶格硅:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金刚石（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有机晶体（原始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子合并器（高效）</t>
-  </si>
-  <si>
-    <t>有机晶体:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光子合并器:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡西米尔晶体（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡西米尔晶体:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳纳米管（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粒子容器（高效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间翘曲器:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间翘曲器（高级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量子芯片:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器:2|位面过滤器:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位面过滤器:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡西米尔晶体:1|钛化玻璃:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引力矩阵:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质能存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反物质:2|氢:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临界光子:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁块:2|齿轮:1|磁线圈:1</t>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,12 +931,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,18 +1217,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -1082,15 +1236,15 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -1101,10 +1255,13 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1119,9 +1276,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1136,9 +1293,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1153,9 +1310,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1170,9 +1327,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1187,9 +1344,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1204,60 +1361,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>176</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
@@ -1272,9 +1432,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -1289,15 +1449,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1306,15 +1466,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>12</v>
@@ -1323,32 +1483,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -1357,134 +1517,140 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>179</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1493,557 +1659,557 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="2">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2">
         <v>6</v>
       </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="2">
-        <v>3</v>
+      <c r="E42" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2">
-        <v>4</v>
+      <c r="E46" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="2">
-        <v>2</v>
+      <c r="E54" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>172</v>
+        <v>18</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -2052,271 +2218,413 @@
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>180</v>
+      <c r="E58" s="2">
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>184</v>
+        <v>7</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="2">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="2">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="2">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="2">
         <v>15</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="F72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
+++ b/DysonRecipeWin/DysonRecipeWin/bin/Debug/data/Recipes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Test\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\Mine\DysonRecipe\DysonRecipeWin\DysonRecipeWin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D6B55F-A3BD-4853-9D2B-4ACD15D65E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="4665" yWindow="7950" windowWidth="25605" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,7 +888,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1217,11 +1218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
